--- a/Iteration 7/6. ERROR LOGS/defect_log #7.xlsx
+++ b/Iteration 7/6. ERROR LOGS/defect_log #7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\ICT Courses material\BCPR280 Software Engineering 2\BCPR280_Software_Engineering_2_Assignment1\Iteration 6\6. ERROR LOGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\ICT Courses material\BCPR280 Software Engineering 2\BCPR280_Software_Engineering_2_Assignment1\Iteration 7\6. ERROR LOGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE430AD7-0104-4096-BFA5-48BB0E59727B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC41F970-2DA1-4CD3-99D0-FB70FE57328D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="432" windowWidth="19872" windowHeight="7716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
   <si>
     <t>PSP Defect Recording Log</t>
   </si>
@@ -613,98 +613,81 @@
     <t>NA</t>
   </si>
   <si>
-    <t>2 min</t>
-  </si>
-  <si>
     <t>3 min</t>
   </si>
   <si>
     <t>MI-OM</t>
   </si>
   <si>
-    <t>Missing space before function parentheses.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Strings must use singlequote. </t>
   </si>
   <si>
     <t>1 min</t>
   </si>
   <si>
-    <t>component definition:
-prop: be props:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forget to add this.setInputNumber() in Guesser2.compareNumber() </t>
-  </si>
-  <si>
-    <t>https://github.com/vuejs/vue/issues/2436</t>
-  </si>
-  <si>
-    <t>tags in html should be all lower letters</t>
-  </si>
-  <si>
-    <t>data binding should use : instead of @
-Ex: @callback should be :callback</t>
-  </si>
-  <si>
-    <t>data binding in template should define props</t>
-  </si>
-  <si>
-    <t>prop definition should like:
-props: ['propName']
-OR
-props: {propName: Function}</t>
-  </si>
-  <si>
-    <t>https://vuejs.org/v2/guide/components-props.html</t>
-  </si>
-  <si>
-    <r>
-      <t>Pass function with arguments should use bind()
-Ex: &lt;replaybtn :callback='setup.bind(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"numberInputBox2")'&gt;&lt;/replaybtn&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>setup() at replay should pass a parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v-seen should be v-show  </t>
-  </si>
-  <si>
     <t>5 min</t>
   </si>
   <si>
-    <t>10 min</t>
-  </si>
-  <si>
-    <t>MI-KN</t>
+    <t>Extra semicolon.</t>
+  </si>
+  <si>
+    <t>should use hasOwnProperty().toBeTruthy to check whether an attribute is existed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE101 test example </t>
+  </si>
+  <si>
+    <t>guessNumber should use Math.floor() to get an integer</t>
+  </si>
+  <si>
+    <t>variable answer is undefined. I should define 
+let answer = "" before using it</t>
+  </si>
+  <si>
+    <t>theGuesser3.compareNumber() shuld pass a parameter</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>do…while loop should add timer to prevent infinite loop</t>
+  </si>
+  <si>
+    <t>expect(counter).toBe('100') should be  expect(counter).toBe(100)</t>
+  </si>
+  <si>
+    <t>forget to add theGuesser3.setup() for each test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Try lower" should be "Try Lower" </t>
+  </si>
+  <si>
+    <t>4 min</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MI-TY</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MI-CM</t>
+  </si>
+  <si>
+    <t>MC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,20 +743,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -962,11 +931,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1037,10 +1005,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1379,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,15 +1413,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
-        <v>43353</v>
+        <v>43354</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
         <v>64</v>
@@ -1464,24 +1430,24 @@
         <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
-        <v>43353</v>
+        <v>43354</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>64</v>
@@ -1490,24 +1456,24 @@
         <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
-        <v>43353</v>
+        <v>43354</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -1516,24 +1482,24 @@
         <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
-        <v>43353</v>
+        <v>43354</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
@@ -1542,24 +1508,24 @@
         <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
         <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
-        <v>43353</v>
+        <v>43354</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
         <v>64</v>
@@ -1568,76 +1534,76 @@
         <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
         <v>69</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
-        <v>43353</v>
+        <v>43354</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
         <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
         <v>69</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
-        <v>43353</v>
+        <v>43354</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
         <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
-        <v>43353</v>
+        <v>43354</v>
       </c>
       <c r="B14">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
         <v>64</v>
@@ -1646,24 +1612,24 @@
         <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
         <v>69</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
-        <v>43353</v>
+        <v>43354</v>
       </c>
       <c r="B15">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
         <v>64</v>
@@ -1672,24 +1638,24 @@
         <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
         <v>69</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
-        <v>43353</v>
+        <v>43354</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
         <v>64</v>
@@ -1698,40 +1664,18 @@
         <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
         <v>69</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
-        <v>43353</v>
-      </c>
-      <c r="B17">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="A17" s="18"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
@@ -1855,14 +1799,8 @@
       <c r="H57" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G13" r:id="rId1" xr:uid="{C43F6BB2-7281-4672-8B08-AEF6B16FE870}"/>
-    <hyperlink ref="G7" r:id="rId2" xr:uid="{750FE751-C018-44E5-91C1-8A94C3142DC3}"/>
-    <hyperlink ref="G8" r:id="rId3" xr:uid="{4E559E0C-BDD5-4B67-A642-5A30F9D55EE2}"/>
-    <hyperlink ref="G9" r:id="rId4" xr:uid="{8DDA924F-6144-4DA6-BE8E-74B2C27A86FE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
